--- a/Hastag/Exercicios - Projeto Automacao Web/Projeto 2 - Google Shopping e Buscape/buscas.xlsx
+++ b/Hastag/Exercicios - Projeto Automacao Web/Projeto 2 - Google Shopping e Buscape/buscas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Downloads\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/207e82bca4adc409/Documentos/Devlopment/Python-Scripts/Hastag/Exercicios - Projeto Automacao Web/Projeto 2 - Google Shopping e Buscape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42EEB8-E014-4F6F-8E3A-37E95301BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{4B42EEB8-E014-4F6F-8E3A-37E95301BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E7FC99-460E-4689-9568-7D8B46BCDC0F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Termos banidos</t>
   </si>
   <si>
-    <t>mini watch</t>
-  </si>
-  <si>
     <t>zota galax</t>
   </si>
   <si>
@@ -57,14 +54,17 @@
     <t>rtx 3060</t>
   </si>
   <si>
-    <t>iphone 12 64gb</t>
+    <t>mini watch usado seminovo</t>
+  </si>
+  <si>
+    <t>iphone 12 64 gb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +74,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,9 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +129,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,21 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220DEAF8-BE44-4105-B361-44B3C8893CB3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.578125" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" customWidth="1"/>
-    <col min="3" max="3" width="17.41796875" customWidth="1"/>
-    <col min="4" max="4" width="19.26171875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,29 +457,29 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>3000</v>
       </c>
-      <c r="D2">
-        <v>3500</v>
+      <c r="D2" s="3">
+        <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4000</v>
@@ -473,6 +487,9 @@
       <c r="D3">
         <v>4500</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
